--- a/272-ajout-scenario-id-nat-ps/ig/StructureDefinition-ror-location-status.xlsx
+++ b/272-ajout-scenario-id-nat-ps/ig/StructureDefinition-ror-location-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T13:07:45+00:00</t>
+    <t>2024-03-12T13:28:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/272-ajout-scenario-id-nat-ps/ig/StructureDefinition-ror-location-status.xlsx
+++ b/272-ajout-scenario-id-nat-ps/ig/StructureDefinition-ror-location-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T14:12:37+00:00</t>
+    <t>2024-03-22T13:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
